--- a/Test/BO/Error_75.xlsx
+++ b/Test/BO/Error_75.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8447341818173735</v>
+        <v>0.02162232307738199</v>
       </c>
       <c r="B1" t="n">
-        <v>1.168521839045118</v>
+        <v>0.02208144704861681</v>
       </c>
       <c r="C1" t="n">
-        <v>0.2424759898690547</v>
+        <v>0.0348511745507325</v>
       </c>
       <c r="D1" t="n">
-        <v>0.919133447795949</v>
+        <v>0.1385210227731548</v>
       </c>
       <c r="E1" t="n">
-        <v>0.2387827653800758</v>
+        <v>-2.57748722565232e-05</v>
       </c>
       <c r="F1" t="n">
-        <v>0.01643303359245163</v>
+        <v>7.584016471096078e-05</v>
       </c>
       <c r="G1" t="n">
-        <v>0.3816843879466671</v>
+        <v>0.00438262706480419</v>
       </c>
       <c r="H1" t="n">
-        <v>0.972383729358957</v>
+        <v>0.01571460695933169</v>
       </c>
       <c r="I1" t="n">
-        <v>1.2044356087257</v>
+        <v>0.09383937972249656</v>
       </c>
       <c r="J1" t="n">
-        <v>0.002545661573784219</v>
+        <v>-0.0001253548014248373</v>
       </c>
     </row>
   </sheetData>

--- a/Test/BO/Error_75.xlsx
+++ b/Test/BO/Error_75.xlsx
@@ -413,47 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.02162232307738199</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.02208144704861681</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.0348511745507325</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.1385210227731548</v>
-      </c>
-      <c r="E1" t="n">
-        <v>-2.57748722565232e-05</v>
-      </c>
-      <c r="F1" t="n">
-        <v>7.584016471096078e-05</v>
-      </c>
-      <c r="G1" t="n">
-        <v>0.00438262706480419</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.01571460695933169</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0.09383937972249656</v>
-      </c>
-      <c r="J1" t="n">
-        <v>-0.0001253548014248373</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>